--- a/data/excel/VisaManualBooking.xlsx
+++ b/data/excel/VisaManualBooking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793520A0-7EA8-469F-87E3-51BA043262FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A60660F-6029-4285-AF8F-91ABC39049E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="25410" windowHeight="6570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="164">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>Verify manual booking for visa with 1 adult , 1 child and 1 infant</t>
+  </si>
+  <si>
+    <t>Password@@12</t>
+  </si>
+  <si>
+    <t>Test125@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Test126@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Test127@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -3254,7 +3266,7 @@
   <dimension ref="A1:AS4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,10 +3471,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -3596,10 +3608,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -3733,10 +3745,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -3889,14 +3901,14 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{DE990F2E-95BF-4EF6-98A5-AA662068AFCD}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{16B0CFCB-C67D-42FD-B988-BC47F2C2607C}"/>
+    <hyperlink ref="G2" r:id="rId2" display="Password@123" xr:uid="{16B0CFCB-C67D-42FD-B988-BC47F2C2607C}"/>
     <hyperlink ref="H2" r:id="rId3" xr:uid="{BF7542FB-658A-4A2E-AE35-8F3CBC3C7F4E}"/>
     <hyperlink ref="F3" r:id="rId4" display="shubham.natkar@quadlabs.com" xr:uid="{4A79CE7A-0A94-4302-BD0F-B897EE49F652}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{C2804420-6083-4D34-89F4-5FABFB85A6B6}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{73912204-6FA4-4C77-86DF-140B2FACBDE6}"/>
-    <hyperlink ref="F4" r:id="rId7" display="shubham.natkar@quadlabs.com" xr:uid="{DEB9FD6F-AED2-4ACB-A99A-40AEFA28AA70}"/>
-    <hyperlink ref="G4" r:id="rId8" xr:uid="{5C8C6766-7BDE-4871-BC04-2E57CD835057}"/>
-    <hyperlink ref="H4" r:id="rId9" xr:uid="{1DC43618-3CB9-4894-BE5F-47B04187A46E}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{73912204-6FA4-4C77-86DF-140B2FACBDE6}"/>
+    <hyperlink ref="F4" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{DEB9FD6F-AED2-4ACB-A99A-40AEFA28AA70}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{1DC43618-3CB9-4894-BE5F-47B04187A46E}"/>
+    <hyperlink ref="G3" r:id="rId8" display="Password@123" xr:uid="{600E51D8-2533-4BDC-BF69-CDC5CA3264EE}"/>
+    <hyperlink ref="G4" r:id="rId9" display="Password@123" xr:uid="{C0B9A227-A7A2-42F4-B0BA-5C1577B15D33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/VisaManualBooking.xlsx
+++ b/data/excel/VisaManualBooking.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A60660F-6029-4285-AF8F-91ABC39049E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6A3EFD-A4CD-462F-848B-1A16EBC2BF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="25410" windowHeight="6570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="168">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -516,6 +517,18 @@
   </si>
   <si>
     <t>Test127@quadlabs.com</t>
+  </si>
+  <si>
+    <t>EE6B4B@E7</t>
+  </si>
+  <si>
+    <t>Gaurav Shah,Sumit Shah</t>
+  </si>
+  <si>
+    <t>2145786522G</t>
+  </si>
+  <si>
+    <t>Akash001@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -610,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -622,6 +635,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3265,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0B9580-7173-4D2C-9D88-EFAF0F7AF953}">
   <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection sqref="A1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,6 +3931,337 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E7D4C-CFA8-4E33-B3E5-1039BED15766}">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{FD70B4C8-4F01-43D1-A539-1AF434661953}">
+      <formula1>"Piyush_QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{5C2ADDA8-1ACD-4E49-8B3B-E89E549816A1}">
+      <formula1>"at,qlabs12345"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K2" xr:uid="{D3C483E7-6091-45A4-8978-C97EE374BFB1}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{962F734B-CCE7-4F1E-8326-3508E16FE521}">
+      <formula1>"Tourist,Immigration,Student,Work permit,Employment,Dependent,Family visitor,Domestic Worker,Permanent migration,Business Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{0390B823-91F3-4ACB-8367-5239634A1AA8}">
+      <formula1>"Single,Double,Multiple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{4FA69C2A-C214-4DCF-A22C-FFB0797C51D8}">
+      <formula1>"ABC Supplier,Hotelbeds"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{22E3C3EE-5873-4FEA-B980-D1C6C4EE45F6}">
+      <formula1>"DOCS COLLECTED,DOCS UPLOADED,DOCS VERIFIED,VISA APPLIED,VISA APPROVED"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2" xr:uid="{4B52C3D7-3E50-482C-8793-49FE835EEF5C}">
+      <formula1>"Male,Female,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2" xr:uid="{1D32C22A-7AA1-4A3E-B49C-F5E728D0F981}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2" xr:uid="{00609531-B19F-4C6A-84BB-85928884A05A}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{4754D1F8-133F-4824-8603-090473EAC072}">
+      <formula1>"Adjustment,Bank Draft,Inter Booking Transfer,Net Banking,Credit Card,Bank Transfer,Debit Card,Cash,Cheque,Direct Deposit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{4FEE483C-2838-440E-9F9B-48B4B3D2D5B6}">
+      <formula1>"EE6B4B@E7,Ankur@12345,F1CD@9E4B"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{CB415AF1-D5D1-4AD7-9026-831AED4665EF}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{7697E5B2-5C84-4F1D-A590-66AD32D289AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46692D9-C129-4C4C-BC69-4E754DBB57AF}">
   <dimension ref="A1"/>
   <sheetViews>
